--- a/biology/Zoologie/Hapithinae/Hapithinae.xlsx
+++ b/biology/Zoologie/Hapithinae/Hapithinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hapithinae  sont une sous-famille d'Orthoptera de la famille des Gryllidae.
 Elle forme un groupe avec les Euscyrtinae Gorochov 1985, les Pentacentrinae Saussure 1878 et les Podoscirtinae Saussure 1878.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette sous-famille se rencontrent en Amérique.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Orthoptera Species File (27 mars 2010)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File (27 mars 2010) :
 Hapithini Gorochov 1986
 Hapithus Uhler, 1864
 Laurepa Walker, 1869
@@ -582,7 +598,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Gorochov, 1986 : System and morphological evolution of crickets from the family Gryllidae (Orthoptera) with description of new taxa. Communication 1. Zoologicheskii Zhurnal, vol. 65, n. 4, p. 516-527.</t>
         </is>
